--- a/Tables/aq_hmf_metrics_all_30_90.xlsx
+++ b/Tables/aq_hmf_metrics_all_30_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>dec_hmf</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,1597 +547,5172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04654161421786363</v>
+        <v>0.429059313507859</v>
       </c>
       <c r="C2" t="n">
-        <v>43.77869919051981</v>
+        <v>91.08333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>11.16701400742552</v>
+        <v>62.34722222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01514658803457593</v>
+        <v>0.253444201246913</v>
       </c>
       <c r="F2" t="n">
-        <v>81.00135074626866</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>7.367816640478173</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>200.3423962608389</v>
+        <v>303.8275862068966</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02537098871588723</v>
+        <v>0.7529466075162587</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01906360577371466</v>
+        <v>0.2414545468503735</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01378869856076767</v>
+        <v>0.2604287642780863</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01205021616020693</v>
+        <v>0.2109516739966905</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0131155657476132</v>
+        <v>0.1408260593027287</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01077845063676774</v>
+        <v>0.1316110849344346</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00470261666472439</v>
+        <v>0.09896820730466412</v>
       </c>
       <c r="P2" t="n">
-        <v>0.003240526716883925</v>
+        <v>0.09968572063154879</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002419253542516096</v>
+        <v>0.0741230837992512</v>
       </c>
       <c r="R2" t="n">
-        <v>0.003262919101623607</v>
+        <v>0.1036676446618317</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003027937249081113</v>
+        <v>0.06255287736525394</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006359508483442223</v>
+        <v>0.236339197766784</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0249644409931523</v>
+        <v>0.04654161421786363</v>
       </c>
       <c r="C3" t="n">
-        <v>63.18613959140275</v>
+        <v>43.77869919051981</v>
       </c>
       <c r="D3" t="n">
-        <v>14.00230416246707</v>
+        <v>11.16701400742552</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00654960159896682</v>
+        <v>0.01514658803457593</v>
       </c>
       <c r="F3" t="n">
-        <v>64.85040000000001</v>
+        <v>81.00135074626866</v>
       </c>
       <c r="G3" t="n">
-        <v>5.23071314650262</v>
+        <v>7.367816640478173</v>
       </c>
       <c r="H3" t="n">
-        <v>184.5600972127288</v>
+        <v>200.3423962608389</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005059738421423477</v>
+        <v>0.02537098871588723</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004353981763815469</v>
+        <v>0.01906360577371466</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00440400258337633</v>
+        <v>0.01378869856076767</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005594559835831533</v>
+        <v>0.01205021616020693</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003019234066995842</v>
+        <v>0.0131155657476132</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004187926856312291</v>
+        <v>0.01077845063676774</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006361172392833059</v>
+        <v>0.00470261666472439</v>
       </c>
       <c r="P3" t="n">
-        <v>0.009916741166035114</v>
+        <v>0.003240526716883925</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007686930077292693</v>
+        <v>0.002419253542516096</v>
       </c>
       <c r="R3" t="n">
-        <v>0.007480682011190698</v>
+        <v>0.003262919101623607</v>
       </c>
       <c r="S3" t="n">
-        <v>0.006359245760578662</v>
+        <v>0.003027937249081113</v>
       </c>
       <c r="T3" t="n">
-        <v>0.006228232455602689</v>
+        <v>0.006359508483442223</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09995847681179476</v>
+        <v>3.07289888607744e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>38.91895365081619</v>
+        <v>6.62962962962963</v>
       </c>
       <c r="D4" t="n">
-        <v>7.623316784091243</v>
+        <v>1.290653045726238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02197586245720851</v>
+        <v>7.552393676117533e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>93.71269230769231</v>
+        <v>34.483</v>
       </c>
       <c r="G4" t="n">
-        <v>6.918653231381866</v>
+        <v>1.619047619047619</v>
       </c>
       <c r="H4" t="n">
-        <v>134.4255059328136</v>
+        <v>61.92</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03983802821130424</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03972283831260297</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02947839015507367</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01272129565170067</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004965447568431784</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002944127057441504</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0003383540681763491</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0002252111529253704</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0003079373881194155</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001605879922213057</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004792279133007112</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01935991143062759</v>
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2312476009316698</v>
+        <v>0.04036691735965275</v>
       </c>
       <c r="C5" t="n">
-        <v>38.85714703173621</v>
+        <v>115.7777777777778</v>
       </c>
       <c r="D5" t="n">
-        <v>8.004797026697128</v>
+        <v>19.62006172839506</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06967850700544882</v>
+        <v>0.01333982278775678</v>
       </c>
       <c r="F5" t="n">
-        <v>94.26659701492538</v>
+        <v>93.333</v>
       </c>
       <c r="G5" t="n">
-        <v>6.304976935653265</v>
+        <v>8.071428571428571</v>
       </c>
       <c r="H5" t="n">
-        <v>208.7955760793557</v>
+        <v>228.4090909090909</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004279290368135574</v>
+        <v>0.00958323641462208</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01869822761219076</v>
+        <v>0.006469025352892384</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05347478304609633</v>
+        <v>0.01466540294358869</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1052050738347208</v>
+        <v>0.01782623874501383</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06223456811219186</v>
+        <v>0.00480546582490273</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06337181628646722</v>
+        <v>0.00638870777281728</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05073770938804045</v>
+        <v>0.01508540132494983</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02270191392030945</v>
+        <v>0.01973886277037333</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04194663925629511</v>
+        <v>0.02215136489781538</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05621005097550756</v>
+        <v>0.01593103977437813</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01581310796101415</v>
+        <v>0.01341593292867072</v>
       </c>
       <c r="T5" t="n">
-        <v>0.009024711167446459</v>
+        <v>0.01019942394148224</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6421148937578048</v>
+        <v>0.0249644409931523</v>
       </c>
       <c r="C6" t="n">
-        <v>53.38935532924025</v>
+        <v>63.18613959140275</v>
       </c>
       <c r="D6" t="n">
-        <v>19.31427690669253</v>
+        <v>14.00230416246707</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2758142511977588</v>
+        <v>0.00654960159896682</v>
       </c>
       <c r="F6" t="n">
-        <v>73.62649999999999</v>
+        <v>64.85040000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>3.473504546036515</v>
+        <v>5.23071314650262</v>
       </c>
       <c r="H6" t="n">
-        <v>156.1303261852526</v>
+        <v>184.5600972127288</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2122685891601528</v>
+        <v>0.005059738421423477</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2444134714191046</v>
+        <v>0.004353981763815469</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1908787585155896</v>
+        <v>0.00440400258337633</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2106830648931956</v>
+        <v>0.005594559835831533</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1338632300574916</v>
+        <v>0.003019234066995842</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08259411936847694</v>
+        <v>0.004187926856312291</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02149915131302965</v>
+        <v>0.006361172392833059</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0006779766660574306</v>
+        <v>0.009916741166035114</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00040001510181024</v>
+        <v>0.007686930077292693</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00108153930240972</v>
+        <v>0.007480682011190698</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001862614661985678</v>
+        <v>0.006359245760578662</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1001691924121227</v>
+        <v>0.006228232455602689</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2954553238887195</v>
+        <v>0.00510980894918592</v>
       </c>
       <c r="C7" t="n">
-        <v>38.46086189469967</v>
+        <v>38.42857142857143</v>
       </c>
       <c r="D7" t="n">
-        <v>5.252530752356257</v>
+        <v>4.441778063206634</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05724798669275122</v>
+        <v>0.001098869967644829</v>
       </c>
       <c r="F7" t="n">
-        <v>93.68758490566037</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>9.657641596170057</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9083422135937</v>
+        <v>142.9444444444445</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06997954264552345</v>
+        <v>0.00128873366898192</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06353535728094285</v>
+        <v>0.0006772936637174401</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07111075749674621</v>
+        <v>0.00063937174275072</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04920562734770745</v>
+        <v>0.0003883938679656</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07386128825674107</v>
+        <v>0.00111400739872128</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05837538725049736</v>
+        <v>0.0006978856745649601</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06319667911236751</v>
+        <v>0.0008024767791667201</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05522054581460731</v>
+        <v>0.00092131044855552</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05732768039257242</v>
+        <v>0.00036209318084352</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05240447872445255</v>
+        <v>0.00045750962714688</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05303362877474448</v>
+        <v>0.000836239521704832</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04583107428591152</v>
+        <v>0.00101777542723584</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6197771652328377</v>
+        <v>2.240628253592064</v>
       </c>
       <c r="C8" t="n">
-        <v>41.1727312673198</v>
+        <v>52.19047619047619</v>
       </c>
       <c r="D8" t="n">
-        <v>11.7916730507733</v>
+        <v>24.69375</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2126224822265211</v>
+        <v>0.4136861301528758</v>
       </c>
       <c r="F8" t="n">
-        <v>90.10651851851853</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>4.687966246379817</v>
+        <v>18.3</v>
       </c>
       <c r="H8" t="n">
-        <v>190.5157206486975</v>
+        <v>183.7142857142857</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06475109942739195</v>
+        <v>0.8236338324618241</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1235701518111827</v>
+        <v>0.7583740357673937</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1122509432512983</v>
+        <v>0.779193535218336</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1297933517324693</v>
+        <v>0.344338032593664</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2582735722840995</v>
+        <v>0.08445133953702982</v>
       </c>
       <c r="N8" t="n">
-        <v>0.25458215934967</v>
+        <v>0.127466585959104</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05776182929626553</v>
+        <v>0.005711438866114296</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0001007525483882548</v>
+        <v>0.00395397190466712</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.001696482314151e-05</v>
+        <v>0.00426040549183368</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0004403745369322879</v>
+        <v>0.02341739784083616</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01015551015420022</v>
+        <v>0.217500566060736</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03862849196028425</v>
+        <v>0.498841462781172</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1101298466811503</v>
+        <v>0.09995847681179476</v>
       </c>
       <c r="C9" t="n">
-        <v>43.80483998775603</v>
+        <v>38.91895365081619</v>
       </c>
       <c r="D9" t="n">
-        <v>8.880198223090387</v>
+        <v>7.623316784091243</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0170635999799244</v>
+        <v>0.02197586245720851</v>
       </c>
       <c r="F9" t="n">
-        <v>84.68478378378379</v>
+        <v>93.71269230769231</v>
       </c>
       <c r="G9" t="n">
-        <v>5.610348289216356</v>
+        <v>6.918653231381866</v>
       </c>
       <c r="H9" t="n">
-        <v>190.9797441574728</v>
+        <v>134.4255059328136</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01313446774494436</v>
+        <v>0.03983802821130424</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0205341064705676</v>
+        <v>0.03972283831260297</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02095819669429928</v>
+        <v>0.02947839015507367</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01805084057743741</v>
+        <v>0.01272129565170067</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02903071984248833</v>
+        <v>0.004965447568431784</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03288498984580717</v>
+        <v>0.002944127057441504</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03237230661917019</v>
+        <v>0.0003383540681763491</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01493368576528345</v>
+        <v>0.0002252111529253704</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01090780205228142</v>
+        <v>0.0003079373881194155</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02322581102522546</v>
+        <v>0.001605879922213057</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02096560176255978</v>
+        <v>0.004792279133007112</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02942271409541804</v>
+        <v>0.01935991143062759</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2029725516843867</v>
+        <v>0.001282790529217512</v>
       </c>
       <c r="C10" t="n">
-        <v>50.63500037286055</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>16.95705880659376</v>
+        <v>1.956816644756924</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06942354717458152</v>
+        <v>0.0001042115026143025</v>
       </c>
       <c r="F10" t="n">
-        <v>77.64240425531915</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>4.152683572602606</v>
+        <v>2.125</v>
       </c>
       <c r="H10" t="n">
-        <v>209.6328792401293</v>
+        <v>117.7</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06034393605535321</v>
+        <v>9.776515882775041e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05331297503725439</v>
+        <v>0.0001486539301895424</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07265438897610106</v>
+        <v>0.0001913889325035928</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0675799457239121</v>
+        <v>7.551715213991266e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02584106451327891</v>
+        <v>2.114697573392509e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009724237104062651</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08250073036448764</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02860921027954187</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02929021585157511</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04295235213102563</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01896303088496583</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06130123122608537</v>
+        <v>7.827159766778588e-05</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07427836138451899</v>
+        <v>2.579267318544288</v>
       </c>
       <c r="C11" t="n">
-        <v>42.63663657879938</v>
+        <v>57.42105263157895</v>
       </c>
       <c r="D11" t="n">
-        <v>9.214366182522147</v>
+        <v>26.73194444444444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01877142870969552</v>
+        <v>1.113623956256206</v>
       </c>
       <c r="F11" t="n">
-        <v>88.21078873239438</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>5.67065771004431</v>
+        <v>22.73333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>231.469323063026</v>
+        <v>241.5333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002002902519760572</v>
+        <v>0.0498190741646304</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00598810511928941</v>
+        <v>0.318299478565824</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01840623382749631</v>
+        <v>0.4933927351584</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01043846512979585</v>
+        <v>1.24787096420862</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02326529457812482</v>
+        <v>1.041204985996303</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03338684118995958</v>
+        <v>0.656416219056192</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02061525359209076</v>
+        <v>0.71852865573636</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01226144874758649</v>
+        <v>0.456530996928384</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.009666084461710318</v>
+        <v>0.370411537700736</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008022067056965293</v>
+        <v>0.564302649740256</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007025526085978493</v>
+        <v>0.175113644722128</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003481594934927811</v>
+        <v>0.097699916813184</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3399504055363953</v>
+        <v>0.2312476009316698</v>
       </c>
       <c r="C12" t="n">
-        <v>44.03678775624952</v>
+        <v>38.85714703173621</v>
       </c>
       <c r="D12" t="n">
-        <v>11.70816373269325</v>
+        <v>8.004797026697128</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1238439660352394</v>
+        <v>0.06967850700544882</v>
       </c>
       <c r="F12" t="n">
-        <v>86.22224444444444</v>
+        <v>94.26659701492538</v>
       </c>
       <c r="G12" t="n">
-        <v>5.008610346095437</v>
+        <v>6.304976935653265</v>
       </c>
       <c r="H12" t="n">
-        <v>233.3093633752061</v>
+        <v>208.7955760793557</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002648593149245564</v>
+        <v>0.004279290368135574</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005321851603025046</v>
+        <v>0.01869822761219076</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04005609744798647</v>
+        <v>0.05347478304609633</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06680425394660926</v>
+        <v>0.1052050738347208</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08837988285261421</v>
+        <v>0.06223456811219186</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1034581332542184</v>
+        <v>0.06337181628646722</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1191559025523015</v>
+        <v>0.05073770938804045</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08045789461978005</v>
+        <v>0.02270191392030945</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06261552558607679</v>
+        <v>0.04194663925629511</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0557140513561292</v>
+        <v>0.05621005097550756</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04016695480861532</v>
+        <v>0.01581310796101415</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0167758916044614</v>
+        <v>0.009024711167446459</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4210714071713996</v>
+        <v>0.0009738977258643898</v>
       </c>
       <c r="C13" t="n">
-        <v>39.6209420564443</v>
+        <v>35.13793103448276</v>
       </c>
       <c r="D13" t="n">
-        <v>12.19306820262243</v>
+        <v>1.598157629243501</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2036667953290029</v>
+        <v>4.210797486505172e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>92.65086666666666</v>
+        <v>63.333</v>
       </c>
       <c r="G13" t="n">
-        <v>4.454064160430977</v>
+        <v>1.708333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>151.9783188401729</v>
+        <v>187.9166666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1227622001803873</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08273130753487504</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1447777264457142</v>
+        <v>9.794033363686118e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1415174197536752</v>
+        <v>9.910751327745408e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1902019516053968</v>
+        <v>0.0001055190557553696</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07295119280613399</v>
+        <v>0.0001467945327744</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008541166103866748</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02716984745365877</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02683599785159728</v>
+        <v>9.590032457806081e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05312433995240751</v>
+        <v>7.32331419443064e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1383699749741104</v>
+        <v>6.447364801441419e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07281258295157512</v>
+        <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4670619684734327</v>
+        <v>2.632441890487853</v>
       </c>
       <c r="C14" t="n">
-        <v>37.93969962018416</v>
+        <v>90.91666666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>6.237715422490428</v>
+        <v>52.56944444444444</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1036146915163591</v>
+        <v>1.230578228445636</v>
       </c>
       <c r="F14" t="n">
-        <v>96.12541935483871</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>8.471152267493103</v>
+        <v>6.1</v>
       </c>
       <c r="H14" t="n">
-        <v>155.6040869793155</v>
+        <v>223.8571428571429</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1016295610000353</v>
+        <v>0.634699263178097</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1174263659153485</v>
+        <v>1.181562539258671</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1250484924584627</v>
+        <v>0.981618535770336</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1011316212267185</v>
+        <v>0.951748469681688</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1180092076963331</v>
+        <v>0.457439724988416</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08453557951955806</v>
+        <v>0.314507286469152</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05482061011971731</v>
+        <v>0.1146137459844864</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04672037461109107</v>
+        <v>0.0074253567828384</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05525137378709254</v>
+        <v>0.007816808870236801</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08589696576371768</v>
+        <v>0.0206368647325344</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04612296425725464</v>
+        <v>0.014924110832064</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08588280880825802</v>
+        <v>0.459252812223576</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05617305651253107</v>
+        <v>0.6421148937578048</v>
       </c>
       <c r="C15" t="n">
-        <v>37.21475567820208</v>
+        <v>53.38935532924025</v>
       </c>
       <c r="D15" t="n">
-        <v>4.130823849620415</v>
+        <v>19.31427690669253</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009863246887482935</v>
+        <v>0.2758142511977588</v>
       </c>
       <c r="F15" t="n">
-        <v>97.60748913043477</v>
+        <v>73.62649999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>11.49932480826409</v>
+        <v>3.473504546036515</v>
       </c>
       <c r="H15" t="n">
-        <v>181.513213677391</v>
+        <v>156.1303261852526</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008680017837774841</v>
+        <v>0.2122685891601528</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01357787910027455</v>
+        <v>0.2444134714191046</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01342480507035639</v>
+        <v>0.1908787585155896</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008455233963187926</v>
+        <v>0.2106830648931956</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007307775056939012</v>
+        <v>0.1338632300574916</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00758228461740234</v>
+        <v>0.08259411936847694</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008285118474195118</v>
+        <v>0.02149915131302965</v>
       </c>
       <c r="P15" t="n">
-        <v>0.007231251798739571</v>
+        <v>0.0006779766660574306</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02550536655551907</v>
+        <v>0.00040001510181024</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01798862634926267</v>
+        <v>0.00108153930240972</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01053149360791139</v>
+        <v>0.001862614661985678</v>
       </c>
       <c r="T15" t="n">
-        <v>0.009074786324176231</v>
+        <v>0.1001691924121227</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1756667394202454</v>
+        <v>0.001848763280431609</v>
       </c>
       <c r="C16" t="n">
-        <v>41.97127360936582</v>
+        <v>36.5</v>
       </c>
       <c r="D16" t="n">
-        <v>19.86370625922889</v>
+        <v>5.27013468013468</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1057681564681816</v>
+        <v>0.0004199881604109145</v>
       </c>
       <c r="F16" t="n">
-        <v>87.64183333333334</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>2.926253694846508</v>
+        <v>2.230769230769231</v>
       </c>
       <c r="H16" t="n">
-        <v>238.0487714734937</v>
+        <v>117.7307692307692</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002624123023927398</v>
+        <v>0.0008042208380203968</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00768076916075162</v>
+        <v>0.0007494652437280433</v>
       </c>
       <c r="K16" t="n">
-        <v>0.009890149037292973</v>
+        <v>0.000835107980514696</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02105214449746606</v>
+        <v>0.0003867228568675181</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07545044774669103</v>
+        <v>3.180548210112e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.09221643910201599</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02542754190443304</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0002774173953608158</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001045787018229492</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0007094992628610179</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.003256750563549715</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.008104631885223389</v>
+        <v>0.0002715209541217152</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1723532496409463</v>
+        <v>2.183813332573824</v>
       </c>
       <c r="C17" t="n">
-        <v>41.70940387200229</v>
+        <v>53.57894736842105</v>
       </c>
       <c r="D17" t="n">
-        <v>11.38647833452516</v>
+        <v>18.76565101565101</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04877609910835384</v>
+        <v>0.5725547451764281</v>
       </c>
       <c r="F17" t="n">
-        <v>89.66909090909091</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>5.619460929465714</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>160.4978986242329</v>
+        <v>225.0526315789474</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0565789558977635</v>
+        <v>0.7394638667646719</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04555798506401244</v>
+        <v>0.46512119551296</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04399115145929395</v>
+        <v>0.61714868153904</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03695445929820122</v>
+        <v>0.284466833869248</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02238009190297863</v>
+        <v>0.6088711009409281</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01992995252535227</v>
+        <v>0.9960009048743039</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002554897157087149</v>
+        <v>0.9744098756787362</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0006437104214492732</v>
+        <v>0.560999772752832</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00130074632314025</v>
+        <v>0.777032393485824</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001783398798193205</v>
+        <v>0.390648212576064</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01554226849710036</v>
+        <v>0.789958467621792</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03937001182592656</v>
+        <v>0.5362893597358079</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2941136776309905</v>
+        <v>0.2954553238887195</v>
       </c>
       <c r="C18" t="n">
-        <v>41.52064276669775</v>
+        <v>38.46086189469967</v>
       </c>
       <c r="D18" t="n">
-        <v>13.21091567443917</v>
+        <v>5.252530752356257</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1220723354652152</v>
+        <v>0.05724798669275122</v>
       </c>
       <c r="F18" t="n">
-        <v>89.42135384615385</v>
+        <v>93.68758490566037</v>
       </c>
       <c r="G18" t="n">
-        <v>4.833395575284936</v>
+        <v>9.657641596170057</v>
       </c>
       <c r="H18" t="n">
-        <v>179.9832370041598</v>
+        <v>174.9083422135937</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03809713547903434</v>
+        <v>0.06997954264552345</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03325593969106452</v>
+        <v>0.06353535728094285</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03907650583909167</v>
+        <v>0.07111075749674621</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03739697747170289</v>
+        <v>0.04920562734770745</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08797195129250683</v>
+        <v>0.07386128825674107</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09693324509258035</v>
+        <v>0.05837538725049736</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02619013192539727</v>
+        <v>0.06319667911236751</v>
       </c>
       <c r="P18" t="n">
-        <v>0.003419109320494793</v>
+        <v>0.05522054581460731</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002925477277170724</v>
+        <v>0.05732768039257242</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005961208898940105</v>
+        <v>0.05240447872445255</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02447875000850885</v>
+        <v>0.05303362877474448</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03447324052247371</v>
+        <v>0.04583107428591152</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1550018163317764</v>
+        <v>0.003405861507417062</v>
       </c>
       <c r="C19" t="n">
-        <v>37.0614369247408</v>
+        <v>30.14285714285714</v>
       </c>
       <c r="D19" t="n">
-        <v>3.128141265397494</v>
+        <v>1.52528186022832</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01733983209106207</v>
+        <v>0.0001795941576070196</v>
       </c>
       <c r="F19" t="n">
-        <v>98.39404693140794</v>
+        <v>63.333</v>
       </c>
       <c r="G19" t="n">
-        <v>12.53689066308511</v>
+        <v>2.863636363636364</v>
       </c>
       <c r="H19" t="n">
-        <v>172.3601901207727</v>
+        <v>138.0333333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02887076464160833</v>
+        <v>0.000439017770931299</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02930257861551783</v>
+        <v>0.0002908127341680668</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03684441962736656</v>
+        <v>0.0003690316690926566</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02958090722259931</v>
+        <v>0.0003988362972288698</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02463400155701137</v>
+        <v>0.0005019557495702401</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01974918954881978</v>
+        <v>0.000326101336141056</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01945625042677528</v>
+        <v>0.0002544781088666073</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01347701592894069</v>
+        <v>0.000243733292750976</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04183426697245848</v>
+        <v>0.0001524995021163142</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01725981452641128</v>
+        <v>0.0002988369700954848</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01989517723380326</v>
+        <v>0.0002416152911186755</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02722483862550895</v>
+        <v>0.000319268322482135</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08213555020559371</v>
+        <v>8.263255721000682</v>
       </c>
       <c r="C20" t="n">
-        <v>47.78073661910746</v>
+        <v>73.06666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>19.64898928841701</v>
+        <v>46.73333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04473041037447232</v>
+        <v>2.511858570851987</v>
       </c>
       <c r="F20" t="n">
-        <v>76.79378947368421</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>4.201942636943073</v>
+        <v>9.551724137931034</v>
       </c>
       <c r="H20" t="n">
-        <v>237.0692586457538</v>
+        <v>239.6896551724138</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001921200810700938</v>
+        <v>1.04958090933696</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002339131402467663</v>
+        <v>2.13586045186752</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00402038605275416</v>
+        <v>1.2512486365056</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0168835546289478</v>
+        <v>1.595656571257728</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04059739520563408</v>
+        <v>3.412639263066677</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03555898719735038</v>
+        <v>3.51328248440064</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02142082511778263</v>
+        <v>0.99925135524288</v>
       </c>
       <c r="P20" t="n">
-        <v>0.004429484427348389</v>
+        <v>0.00219539379015936</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.002310400410392704</v>
+        <v>0.0020306577033792</v>
       </c>
       <c r="R20" t="n">
-        <v>0.005093380033861857</v>
+        <v>0.007171961458406401</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0005604145387529738</v>
+        <v>0.063243977870304</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0001151736168986981</v>
+        <v>0.25933700790144</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1188666029964147</v>
+        <v>0.6197771652328377</v>
       </c>
       <c r="C21" t="n">
-        <v>36.99317688888661</v>
+        <v>41.1727312673198</v>
       </c>
       <c r="D21" t="n">
-        <v>4.332327147705283</v>
+        <v>11.7916730507733</v>
       </c>
       <c r="E21" t="n">
-        <v>0.018077643731833</v>
+        <v>0.2126224822265211</v>
       </c>
       <c r="F21" t="n">
-        <v>98.56589221556887</v>
+        <v>90.10651851851853</v>
       </c>
       <c r="G21" t="n">
-        <v>10.69502876521936</v>
+        <v>4.687966246379817</v>
       </c>
       <c r="H21" t="n">
-        <v>186.5607244732938</v>
+        <v>190.5157206486975</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01793070670073391</v>
+        <v>0.06475109942739195</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0166690030965435</v>
+        <v>0.1235701518111827</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02322897847919089</v>
+        <v>0.1122509432512983</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02319135775402129</v>
+        <v>0.1297933517324693</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0221509994462913</v>
+        <v>0.2582735722840995</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02769162253641897</v>
+        <v>0.25458215934967</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02907130664305753</v>
+        <v>0.05776182929626553</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01952845483004172</v>
+        <v>0.0001007525483882548</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02596911693543099</v>
+        <v>9.001696482314151e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02143624987056422</v>
+        <v>0.0004403745369322879</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01106045987662421</v>
+        <v>0.01015551015420022</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01946415525557521</v>
+        <v>0.03862849196028425</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1284179850037152</v>
+        <v>0.002723789428563794</v>
       </c>
       <c r="C22" t="n">
-        <v>54.91279404489674</v>
+        <v>36.06666666666667</v>
       </c>
       <c r="D22" t="n">
-        <v>22.42784049388445</v>
+        <v>3.828310589568196</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05558285234155399</v>
+        <v>0.0002703558793452831</v>
       </c>
       <c r="F22" t="n">
-        <v>68.0158888888889</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>3.029619218168693</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
-        <v>192.5373575207346</v>
+        <v>112.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006735205005416831</v>
+        <v>0.000705521029082184</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04956321453021565</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05342715144684851</v>
+        <v>0.0009141482733992985</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03637246152576701</v>
+        <v>0.000372124140583104</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04325130114205543</v>
+        <v>0.0001001566864242</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0556530988161091</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01361449464835687</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.005264277120854147</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005506529102725782</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0006383459509797972</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.001868467249623203</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001967890484119307</v>
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3753379082802217</v>
+        <v>0.6139101404270912</v>
       </c>
       <c r="C23" t="n">
-        <v>37.53117985941262</v>
+        <v>67.42857142857143</v>
       </c>
       <c r="D23" t="n">
-        <v>4.404330864171401</v>
+        <v>30.43968253968254</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04558920885386617</v>
+        <v>0.0722510517647361</v>
       </c>
       <c r="F23" t="n">
-        <v>97.06547500000001</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>9.674545460605806</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>158.9551989817335</v>
+        <v>216.3478260869565</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09191444350764666</v>
+        <v>0.06365115794335681</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08786287287999801</v>
+        <v>0.128893755027744</v>
       </c>
       <c r="K23" t="n">
-        <v>0.09180731079266165</v>
+        <v>0.1157946730495776</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06939242193894687</v>
+        <v>0.1213970397914736</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05374195971446744</v>
+        <v>0.1626396045442272</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0374936098101228</v>
+        <v>0.273465981680976</v>
       </c>
       <c r="O23" t="n">
-        <v>0.07297696476470858</v>
+        <v>0.1633476551576688</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0188173118570537</v>
+        <v>0.1287274286668587</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06133286185851548</v>
+        <v>0.07643309965375186</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04810864640849166</v>
+        <v>0.1483222832821632</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06485252505861894</v>
+        <v>0.1262817443731392</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08662866410383777</v>
+        <v>0.1899847464173568</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1570691452678537</v>
+        <v>0.1101298466811503</v>
       </c>
       <c r="C24" t="n">
-        <v>40.83662090908165</v>
+        <v>43.80483998775603</v>
       </c>
       <c r="D24" t="n">
-        <v>9.499136513905373</v>
+        <v>8.880198223090387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04749196895618431</v>
+        <v>0.0170635999799244</v>
       </c>
       <c r="F24" t="n">
-        <v>90.02079069767443</v>
+        <v>84.68478378378379</v>
       </c>
       <c r="G24" t="n">
-        <v>5.732474741367474</v>
+        <v>5.610348289216356</v>
       </c>
       <c r="H24" t="n">
-        <v>213.7040547245516</v>
+        <v>190.9797441574728</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05097211886655505</v>
+        <v>0.01313446774494436</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04588851437048015</v>
+        <v>0.0205341064705676</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04909506955059713</v>
+        <v>0.02095819669429928</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03551076092747071</v>
+        <v>0.01805084057743741</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01703161856924814</v>
+        <v>0.02903071984248833</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01596648142981786</v>
+        <v>0.03288498984580717</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04760735145795034</v>
+        <v>0.03237230661917019</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02178813944545736</v>
+        <v>0.01493368576528345</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02894413019107047</v>
+        <v>0.01090780205228142</v>
       </c>
       <c r="R24" t="n">
-        <v>0.03389310148202189</v>
+        <v>0.02322581102522546</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0187254755172324</v>
+        <v>0.02096560176255978</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03881588692346718</v>
+        <v>0.02942271409541804</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1590431576624017</v>
+        <v>0.00120109383780768</v>
       </c>
       <c r="C25" t="n">
-        <v>36.56040738134334</v>
+        <v>36.36666666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>3.807590568430193</v>
+        <v>3.52149188101823</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01794295733357503</v>
+        <v>0.0004679988343697281</v>
       </c>
       <c r="F25" t="n">
-        <v>99.4871978021978</v>
+        <v>46.66699999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>9.751489661588185</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="H25" t="n">
-        <v>164.4073174863815</v>
+        <v>163.5333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0264777206442481</v>
+        <v>0.00026239522733424</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02887552752705917</v>
+        <v>0.0005105113501167884</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03970207880822759</v>
+        <v>0.000387048251415168</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03438586039605359</v>
+        <v>8.8566034773888e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02723386513789511</v>
+        <v>0.00012722192840448</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01733274297222073</v>
+        <v>0.000203555085447168</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01432284259628841</v>
+        <v>0.0003241712598768</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01233297259047868</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05059542523466169</v>
+        <v>0.0001573637391341568</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01426881679151915</v>
+        <v>0.000288206599347072</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01837265769821787</v>
+        <v>6.361096420224001e-05</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02481726791253703</v>
+        <v>9.7373706740352e-05</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.514198894338074</v>
+      </c>
+      <c r="C26" t="n">
+        <v>153.5714285714286</v>
+      </c>
+      <c r="D26" t="n">
+        <v>71.29084249084249</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5513319158919361</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11.03448275862069</v>
+      </c>
+      <c r="H26" t="n">
+        <v>297.3333333333333</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6740519511186721</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6018704610884412</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.6965983098132481</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6699865580860033</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3384429505632</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09884165206809602</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.221379444193933</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.209345314239936</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.25240504385376</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.442503963796608</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.2698083512393472</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.6863459932385281</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2029725516843867</v>
+      </c>
+      <c r="C27" t="n">
+        <v>50.63500037286055</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.95705880659376</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06942354717458152</v>
+      </c>
+      <c r="F27" t="n">
+        <v>77.64240425531915</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.152683572602606</v>
+      </c>
+      <c r="H27" t="n">
+        <v>209.6328792401293</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.06034393605535321</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.05331297503725439</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.07265438897610106</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0675799457239121</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.02584106451327891</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.009724237104062651</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.08250073036448764</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.02860921027954187</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.02929021585157511</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.04295235213102563</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01896303088496583</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.06130123122608537</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.000756970474006656</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.266975259634271</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0002518636463408383</v>
+      </c>
+      <c r="F28" t="n">
+        <v>23.333</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H28" t="n">
+        <v>153.8620689655172</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.000196307105391432</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.000275973721615872</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.000238602280147056</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.899343040396801e-05</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.201917991616e-05</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.382428447202401e-05</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0002440792731312524</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0002245203558972554</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.000130769462946528</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.00034802537145264</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.471935685099888</v>
+      </c>
+      <c r="C29" t="n">
+        <v>156.4285714285714</v>
+      </c>
+      <c r="D29" t="n">
+        <v>33.88405797101449</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1551682669281146</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10.37931034482759</v>
+      </c>
+      <c r="H29" t="n">
+        <v>287.7586206896552</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01315590396000873</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.03262315340210021</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1501081135298388</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0716112662384448</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1383242306990491</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2456912327922864</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1510344481960339</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.1051293512219328</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0680943138907248</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.05591342588988241</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1260067958831808</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.02227047817583808</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.07427836138451899</v>
+      </c>
+      <c r="C30" t="n">
+        <v>42.63663657879938</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.214366182522147</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01877142870969552</v>
+      </c>
+      <c r="F30" t="n">
+        <v>88.21078873239438</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.67065771004431</v>
+      </c>
+      <c r="H30" t="n">
+        <v>231.469323063026</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.002002902519760572</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.00598810511928941</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01840623382749631</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01043846512979585</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02326529457812482</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03338684118995958</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.02061525359209076</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01226144874758649</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.009666084461710318</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.008022067056965293</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.007025526085978493</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.003481594934927811</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0001444668426769244</v>
+      </c>
+      <c r="C31" t="n">
+        <v>35.76666666666667</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.375205022845676</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.646014774345952e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>23.333</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.769230769230769</v>
+      </c>
+      <c r="H31" t="n">
+        <v>173.9565217391304</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.475111513747478e-05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.832474243459771e-05</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.761811385036017e-05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.671730398652527e-05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5.024178805067474e-05</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.215170057537647e-05</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5.576071879953791</v>
+      </c>
+      <c r="C32" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="D32" t="n">
+        <v>38.64010989010989</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.10209349727627</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>286</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.03943023479097696</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.06276689563878721</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.4432705574677632</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.089362227718822</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.512411838296912</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.416383748106992</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.964005995283776</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.588561502173632</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.116477274987008</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.09596798169367</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.8349183709098625</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.251874952485408</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3399504055363953</v>
+      </c>
+      <c r="C33" t="n">
+        <v>44.03678775624952</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.70816373269325</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1238439660352394</v>
+      </c>
+      <c r="F33" t="n">
+        <v>86.22224444444444</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.008610346095437</v>
+      </c>
+      <c r="H33" t="n">
+        <v>233.3093633752061</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.002648593149245564</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.005321851603025046</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.04005609744798647</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.06680425394660926</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.08837988285261421</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1034581332542184</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.1191559025523015</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.08045789461978005</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.06261552558607679</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0557140513561292</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.04016695480861532</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0167758916044614</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.000494416672331456</v>
+      </c>
+      <c r="C34" t="n">
+        <v>36.36666666666667</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.857500647500648</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0001062184230387616</v>
+      </c>
+      <c r="F34" t="n">
+        <v>40</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.869565217391304</v>
+      </c>
+      <c r="H34" t="n">
+        <v>198.6923076923077</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.13650985027968e-05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0001115826647204381</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0001868995519208418</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2.052730069720278</v>
+      </c>
+      <c r="C35" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33.96666666666666</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.425928052058574</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>169</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.793342897127424</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4476254619400704</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.766289702678243</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8746303696512481</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.014864002335814</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.661921014035232</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.05898623739826164</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.225941251695264</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.09061218745572656</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.313650985027968</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.270751338717056</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.286031865528192</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4210714071713996</v>
+      </c>
+      <c r="C36" t="n">
+        <v>39.6209420564443</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.19306820262243</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2036667953290029</v>
+      </c>
+      <c r="F36" t="n">
+        <v>92.65086666666666</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.454064160430977</v>
+      </c>
+      <c r="H36" t="n">
+        <v>151.9783188401729</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1227622001803873</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.08273130753487504</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447777264457142</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1415174197536752</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1902019516053968</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.07295119280613399</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.008541166103866748</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.02716984745365877</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.02683599785159728</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.05312433995240751</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.1383699749741104</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.07281258295157512</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.03974005280764915</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33.93333333333333</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.459922669922671</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00671537822903183</v>
+      </c>
+      <c r="F37" t="n">
+        <v>66.667</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H37" t="n">
+        <v>142.6296296296296</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.007827596044236131</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.007896211367510226</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.008959693274269003</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.008639502089443503</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0104595552920935</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00181186394738688</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0052880982878016</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.003883938679656</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.008855671448609281</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3.461524756896563</v>
+      </c>
+      <c r="C38" t="n">
+        <v>57.57894736842105</v>
+      </c>
+      <c r="D38" t="n">
+        <v>28.44649122807018</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9071395461443402</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>20.06666666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>182.304347826087</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9866395342315857</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.148166253490688</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.00862948960689</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.8492529735388801</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7705081920291841</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.235809791597574</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.70767197674992</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.780212941695936</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.506074151739744</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.73071056314368</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.47110443193215</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.568318528744008</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4670619684734327</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37.93969962018416</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.237715422490428</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1036146915163591</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96.12541935483871</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.471152267493103</v>
+      </c>
+      <c r="H39" t="n">
+        <v>155.6040869793155</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1016295610000353</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1174263659153485</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1250484924584627</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.1011316212267185</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1180092076963331</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.08453557951955806</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.05482061011971731</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.04672037461109107</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.05525137378709254</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.08589696576371768</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.04612296425725464</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.08588280880825802</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.02688492936252211</v>
+      </c>
+      <c r="C40" t="n">
+        <v>34.93333333333333</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.714486867948079</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001812226709423676</v>
+      </c>
+      <c r="F40" t="n">
+        <v>63.333</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.789473684210526</v>
+      </c>
+      <c r="H40" t="n">
+        <v>142.8333333333333</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.00440986504439952</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.00534061228434768</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0053287289174088</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.00518633239543776</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.00266095672847928</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.002051735892700652</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.0008943981175468801</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.001407225771005498</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.00304458851189952</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.003140624545516538</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6106062010696982</v>
+      </c>
+      <c r="C41" t="n">
+        <v>49.63636363636363</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.46765188834155</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1218027334393177</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25.89655172413793</v>
+      </c>
+      <c r="H41" t="n">
+        <v>212.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.125753983076736</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.19301733505872</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.171545722050528</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.1083689050775718</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.07794483868377361</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.09170953484001403</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.168997205856528</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.081837952021728</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.276218379170496</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2405636182099584</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.15832838892096</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.07417640659961797</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.05617305651253107</v>
+      </c>
+      <c r="C42" t="n">
+        <v>37.21475567820208</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.130823849620415</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.009863246887482935</v>
+      </c>
+      <c r="F42" t="n">
+        <v>97.60748913043477</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11.49932480826409</v>
+      </c>
+      <c r="H42" t="n">
+        <v>181.513213677391</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.008680017837774841</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01357787910027455</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01342480507035639</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.008455233963187926</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.007307775056939012</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.00758228461740234</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.008285118474195118</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.007231251798739571</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.02550536655551907</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.01798862634926267</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.01053149360791139</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.009074786324176231</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0001208447027084316</v>
+      </c>
+      <c r="C43" t="n">
+        <v>33.86666666666667</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.341730159338913</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7.859858640332225e-06</v>
+      </c>
+      <c r="F43" t="n">
+        <v>73.333</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="H43" t="n">
+        <v>152.7241379310345</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.615128434281607e-05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.049293076919755e-05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.02882277171952e-05</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.03927896958976e-05</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.563514685019e-05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.856597445350574e-05</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.342139837813659e-05</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.228254657790231e-05</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4.604804688815907e-06</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6.947459026139459e-06</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5.207710805567999e-06</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.75052480333472e-05</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.003321926602942</v>
+      </c>
+      <c r="C44" t="n">
+        <v>72.06666666666666</v>
+      </c>
+      <c r="D44" t="n">
+        <v>33.88405797101449</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.455874927722153</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6.25925925925926</v>
+      </c>
+      <c r="H44" t="n">
+        <v>272.625</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.06703616996697601</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.137130559366752</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.121839462202752</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.191719776242232</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.837432227283624</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.063507570138634</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.249830314350336</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0028380276336384</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.0299542399377984</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0146142112628736</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.032172468433056</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.1773767271024</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1756667394202454</v>
+      </c>
+      <c r="C45" t="n">
+        <v>41.97127360936582</v>
+      </c>
+      <c r="D45" t="n">
+        <v>19.86370625922889</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1057681564681816</v>
+      </c>
+      <c r="F45" t="n">
+        <v>87.64183333333334</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.926253694846508</v>
+      </c>
+      <c r="H45" t="n">
+        <v>238.0487714734937</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.002624123023927398</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.00768076916075162</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.009890149037292973</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.02105214449746606</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.07545044774669103</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.09221643910201599</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.02542754190443304</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0002774173953608158</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.001045787018229492</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0007094992628610179</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.003256750563549715</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.008104631885223389</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.001791192325747776</v>
+      </c>
+      <c r="C46" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.325700052600638</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0003032909480461219</v>
+      </c>
+      <c r="F46" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.565217391304348</v>
+      </c>
+      <c r="H46" t="n">
+        <v>188.7826086956522</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.137808647104001e-05</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.000526309370320104</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.001033900584245149</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3.373228689079502</v>
+      </c>
+      <c r="C47" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="D47" t="n">
+        <v>52.32202380952381</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9944239315966225</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13.14814814814815</v>
+      </c>
+      <c r="H47" t="n">
+        <v>270.5909090909091</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.335361321267344</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.80783594464896</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.7707099272058038</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5048263982111616</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.267969924471744</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.367230989490624</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.09938688890411521</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0151962923615832</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0133583024824704</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.015515366589072</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.488301527950272</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.309740856285772</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1723532496409463</v>
+      </c>
+      <c r="C48" t="n">
+        <v>41.70940387200229</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11.38647833452516</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.04877609910835384</v>
+      </c>
+      <c r="F48" t="n">
+        <v>89.66909090909091</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.619460929465714</v>
+      </c>
+      <c r="H48" t="n">
+        <v>160.4978986242329</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0565789558977635</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.04555798506401244</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.04399115145929395</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.03695445929820122</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.02238009190297863</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.01992995252535227</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.002554897157087149</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.0006437104214492732</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.00130074632314025</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.001783398798193205</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.01554226849710036</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.03937001182592656</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.000474259608247712</v>
+      </c>
+      <c r="C49" t="n">
+        <v>36</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.75256100713617</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.496791320698397e-05</v>
+      </c>
+      <c r="F49" t="n">
+        <v>40</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2.43560510149066</v>
+      </c>
+      <c r="C50" t="n">
+        <v>73</v>
+      </c>
+      <c r="D50" t="n">
+        <v>42.76960784313725</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.50715044621837</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.73333333333333</v>
+      </c>
+      <c r="H50" t="n">
+        <v>279.6153846153846</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2126412906296655</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2318925467114928</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3157061084868096</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.3309727398953472</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.008744372284719</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.35074372179412</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.3511058324813149</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.08318356857216</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.039471418812672</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0760762666103328</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.22830174402784</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.217879253406154</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2941136776309905</v>
+      </c>
+      <c r="C51" t="n">
+        <v>41.52064276669775</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13.21091567443917</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1220723354652152</v>
+      </c>
+      <c r="F51" t="n">
+        <v>89.42135384615385</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.833395575284936</v>
+      </c>
+      <c r="H51" t="n">
+        <v>179.9832370041598</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03809713547903434</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.03325593969106452</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.03907650583909167</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.03739697747170289</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.08797195129250683</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.09693324509258035</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.02619013192539727</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.003419109320494793</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.002925477277170724</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.005961208898940105</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.02447875000850885</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.03447324052247371</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.000283505679190368</v>
+      </c>
+      <c r="C52" t="n">
+        <v>33.66666666666666</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.204828751829525</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8.019670759279202e-05</v>
+      </c>
+      <c r="F52" t="n">
+        <v>46.66699999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.705882352941176</v>
+      </c>
+      <c r="H52" t="n">
+        <v>80.63333333333334</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.813561878176e-05</v>
+      </c>
+      <c r="M52" t="n">
+        <v>7.095069084096001e-06</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.498603031123199e-05</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4.847181569016503</v>
+      </c>
+      <c r="C53" t="n">
+        <v>91</v>
+      </c>
+      <c r="D53" t="n">
+        <v>14.15081168831169</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8116070951005997</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>226</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.045959977528523</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.586297363900952</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.261773385092571</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.543753583124037</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8422947961817761</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.7396670684558719</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.594273200181696</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.4774492178487346</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.100050741122385</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.297197764479504</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.4608666783071121</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.8160017546082758</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1550018163317764</v>
+      </c>
+      <c r="C54" t="n">
+        <v>37.0614369247408</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.128141265397494</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01733983209106207</v>
+      </c>
+      <c r="F54" t="n">
+        <v>98.39404693140794</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12.53689066308511</v>
+      </c>
+      <c r="H54" t="n">
+        <v>172.3601901207727</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.02887076464160833</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.02930257861551783</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.03684441962736656</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.02958090722259931</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.02463400155701137</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01974918954881978</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01945625042677528</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01347701592894069</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.04183426697245848</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.01725981452641128</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.01989517723380326</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.02722483862550895</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.000169904069859001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>33.96666666666667</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.249569829906331</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6.470201326332079e-06</v>
+      </c>
+      <c r="F55" t="n">
+        <v>40</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.807692307692307</v>
+      </c>
+      <c r="H55" t="n">
+        <v>134.1666666666667</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.602224685608788e-05</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.39246394144704e-05</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.81236879630912e-05</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.56611417153688e-05</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.193243825412173e-05</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.649744710641526e-05</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.30416797651403e-05</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.714304847965384e-05</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.475841094279593e-05</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.105683417552463e-05</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2238500734388989</v>
+      </c>
+      <c r="C56" t="n">
+        <v>57.47368421052632</v>
+      </c>
+      <c r="D56" t="n">
+        <v>37.32916666666667</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1467854600567494</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>16.82758620689655</v>
+      </c>
+      <c r="H56" t="n">
+        <v>275.8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0036331646861664</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.00183493165968</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0122165672275584</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.04711214838223244</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.105468008784386</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.08633693260953601</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.072693875917656</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0184926160216512</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.01146465300968064</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.03321960276684675</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.0032294797210368</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.0015168768386688</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.08213555020559371</v>
+      </c>
+      <c r="C57" t="n">
+        <v>47.78073661910746</v>
+      </c>
+      <c r="D57" t="n">
+        <v>19.64898928841701</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.04473041037447232</v>
+      </c>
+      <c r="F57" t="n">
+        <v>76.79378947368421</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.201942636943073</v>
+      </c>
+      <c r="H57" t="n">
+        <v>237.0692586457538</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0001921200810700938</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0002339131402467663</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.00402038605275416</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0168835546289478</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.04059739520563408</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.03555898719735038</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.02142082511778263</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.004429484427348389</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.002310400410392704</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.005093380033861857</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.0005604145387529738</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.0001151736168986981</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0005100359168311727</v>
+      </c>
+      <c r="C58" t="n">
+        <v>35.13793103448276</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.054570526356317</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.05255632055837e-05</v>
+      </c>
+      <c r="F58" t="n">
+        <v>63.333</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="H58" t="n">
+        <v>216.6190476190476</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.913225628106579e-05</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.34246771328048e-05</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.378983926367562e-05</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.000136379111163264</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3.302876987424e-05</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.104873516681984</v>
+      </c>
+      <c r="C59" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="D59" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2129761057046731</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>24.73333333333333</v>
+      </c>
+      <c r="H59" t="n">
+        <v>245.8333333333333</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.289068725968128</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2315213259218806</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.2025177374155623</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.2447309518903872</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.2327337180144303</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.3797986617702569</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.3651339247367041</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.4055525177965632</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.4774736836041985</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.336404137608</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.1808753301335232</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.2718390089427264</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1188666029964147</v>
+      </c>
+      <c r="C60" t="n">
+        <v>36.99317688888661</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.332327147705283</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.018077643731833</v>
+      </c>
+      <c r="F60" t="n">
+        <v>98.56589221556887</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.69502876521936</v>
+      </c>
+      <c r="H60" t="n">
+        <v>186.5607244732938</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01793070670073391</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0166690030965435</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.02322897847919089</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.02319135775402129</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0221509994462913</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02769162253641897</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.02907130664305753</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.01952845483004172</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.02596911693543099</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.02143624987056422</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.01106045987662421</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.01946415525557521</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.001737494341975436</v>
+      </c>
+      <c r="C61" t="n">
+        <v>35.03571428571428</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.466550402379301</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0001140246026186835</v>
+      </c>
+      <c r="F61" t="n">
+        <v>75</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.066666666666667</v>
+      </c>
+      <c r="H61" t="n">
+        <v>152.9333333333333</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0001882009419133212</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.000262149550373137</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0002308976059893537</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0003159426107896111</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.0002476236676832934</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.000173411643667126</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.0001544319261045783</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.0001414984162978334</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0001353638742880979</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.80515272117042</v>
+      </c>
+      <c r="C62" t="n">
+        <v>95.81818181818181</v>
+      </c>
+      <c r="D62" t="n">
+        <v>51.57575757575758</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.333642820311801</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="H62" t="n">
+        <v>250.3333333333333</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.047463565597056</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.426193460155008</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.448375745107584</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.2277317001631942</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.2384281968870351</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.320606249795136</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.063855621756864</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.036780185711808</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.046974250487808</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.00210379283667216</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.00638066902459392</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.005689185222708277</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1284179850037152</v>
+      </c>
+      <c r="C63" t="n">
+        <v>54.91279404489674</v>
+      </c>
+      <c r="D63" t="n">
+        <v>22.42784049388445</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.05558285234155399</v>
+      </c>
+      <c r="F63" t="n">
+        <v>68.0158888888889</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.029619218168693</v>
+      </c>
+      <c r="H63" t="n">
+        <v>192.5373575207346</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.006735205005416831</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.04956321453021565</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.05342715144684851</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.03637246152576701</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.04325130114205543</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0556530988161091</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.01361449464835687</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.005264277120854147</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.005506529102725782</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0006383459509797972</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.001868467249623203</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.001967890484119307</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.002941451054456727</v>
+      </c>
+      <c r="C64" t="n">
+        <v>36.06666666666667</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8.722084195997239</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0009059109265536399</v>
+      </c>
+      <c r="F64" t="n">
+        <v>36.667</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="H64" t="n">
+        <v>43.54545454545455</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6.850411529472e-05</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.607685567693408</v>
+      </c>
+      <c r="C65" t="n">
+        <v>49.68181818181818</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.949750146972368</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.2042398462039279</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>191.7333333333333</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.4801726427331032</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.3629984137956288</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.36336743894052</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3470022580423942</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.2647571137269563</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.2044358526438144</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.5565959367696001</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.15100807954848</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.386803593860544</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.340043418733032</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.373378010550552</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.527420523380688</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.3753379082802217</v>
+      </c>
+      <c r="C66" t="n">
+        <v>37.53117985941262</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.404330864171401</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.04558920885386617</v>
+      </c>
+      <c r="F66" t="n">
+        <v>97.06547500000001</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.674545460605806</v>
+      </c>
+      <c r="H66" t="n">
+        <v>158.9551989817335</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.09191444350764666</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.08786287287999801</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.09180731079266165</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.06939242193894687</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.05374195971446744</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0374936098101228</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.07297696476470858</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.0188173118570537</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.06133286185851548</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.04810864640849166</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.06485252505861894</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.08662866410383777</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.003125418707803392</v>
+      </c>
+      <c r="C67" t="n">
+        <v>34.93333333333333</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.367988148798594</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0001217698832581802</v>
+      </c>
+      <c r="F67" t="n">
+        <v>73.333</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.111111111111111</v>
+      </c>
+      <c r="H67" t="n">
+        <v>134.2666666666667</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.000304399304906816</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0002692498570974124</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0003219271595481799</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0001876617543025551</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.00021835686750192</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0002832270025852904</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0001737142035096782</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.0001303255842402813</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0002529646195940788</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.000195195952330848</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.0003174714068424813</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2.308209466222389</v>
+      </c>
+      <c r="C68" t="n">
+        <v>74.92857142857143</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33.53757440476191</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.888744598444233</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>24.84615384615385</v>
+      </c>
+      <c r="H68" t="n">
+        <v>296.5714285714286</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.8585400578088066</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5621079275590701</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.8099172471514616</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.8367702404002451</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.264719474103168</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1687158496687104</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.522730270663177</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.18899796094704</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.411304300402176</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3348587173879584</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.1969737972277816</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.5544111448068058</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1570691452678537</v>
+      </c>
+      <c r="C69" t="n">
+        <v>40.83662090908165</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9.499136513905373</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.04749196895618431</v>
+      </c>
+      <c r="F69" t="n">
+        <v>90.02079069767443</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.732474741367474</v>
+      </c>
+      <c r="H69" t="n">
+        <v>213.7040547245516</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.05097211886655505</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.04588851437048015</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.04909506955059713</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.03551076092747071</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.01703161856924814</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.01596648142981786</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.04760735145795034</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.02178813944545736</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.02894413019107047</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.03389310148202189</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.0187254755172324</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.03881588692346718</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0006908763987300177</v>
+      </c>
+      <c r="C70" t="n">
+        <v>33.76666666666667</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.418410488178039</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.753397248183301e-05</v>
+      </c>
+      <c r="F70" t="n">
+        <v>46.66699999999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.782608695652174</v>
+      </c>
+      <c r="H70" t="n">
+        <v>146.0714285714286</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.303592140275973e-05</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.470613150981802e-05</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.168484480884203e-05</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.0001275983246423631</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0001445802188000162</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0001326187862270682</v>
+      </c>
+      <c r="R70" t="n">
+        <v>9.742789838870111e-05</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4.266198633216377e-05</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.159787960709747</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40.11111111111111</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5.80548775936707</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.2908164615249647</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>25</v>
+      </c>
+      <c r="H71" t="n">
+        <v>191.0333333333333</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.3001280947360233</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.21998791786608</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.547797326194048</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.783587177136792</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.3100940405799729</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1704595907853033</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.186836819214528</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.2413302118811136</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.7886291615750016</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.1759310233705309</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.2028022929714018</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.2633954449840263</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1590431576624017</v>
+      </c>
+      <c r="C72" t="n">
+        <v>36.56040738134334</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.807590568430193</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01794295733357503</v>
+      </c>
+      <c r="F72" t="n">
+        <v>99.4871978021978</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9.751489661588185</v>
+      </c>
+      <c r="H72" t="n">
+        <v>164.4073174863815</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0264777206442481</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.02887552752705917</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.03970207880822759</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.03438586039605359</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.02723386513789511</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01733274297222073</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.01432284259628841</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.01233297259047868</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.05059542523466169</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.01426881679151915</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.01837265769821787</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.02481726791253703</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0008479912395786048</v>
+      </c>
+      <c r="C73" t="n">
+        <v>34.46666666666667</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.452354548558255</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.282198522516393e-05</v>
+      </c>
+      <c r="F73" t="n">
+        <v>90</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.724137931034483</v>
+      </c>
+      <c r="H73" t="n">
+        <v>137.3571428571429</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.000150535754547192</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0001485438342899616</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0001561927574589219</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0001672345593834415</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.00016575549325776</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.000130300535966832</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3.017443173696e-05</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.000122848674615576</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5.973721958736001e-05</v>
+      </c>
+      <c r="S73" t="n">
+        <v>7.860031704887039e-05</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.0001129147801014678</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B74" t="n">
+        <v>2.293900795687223</v>
+      </c>
+      <c r="C74" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>14.5264367816092</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6698444672185851</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H74" t="n">
+        <v>172.1333333333333</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9291176458789679</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.462321225721152</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.445908781431792</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.3334927127079744</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.07290795127795201</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.201720153787488</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0006556822463923201</v>
+      </c>
+      <c r="P74" t="n">
+        <v>6.605753974848e-05</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.01104384201572731</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0219671901858024</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.361778621130432</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.8772249807468439</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
         <v>0.33427952117681</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C75" t="n">
         <v>38.19447278911564</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D75" t="n">
         <v>6.653332013467391</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E75" t="n">
         <v>0.07858692375245531</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F75" t="n">
         <v>96.12489285714285</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G75" t="n">
         <v>7.341728243021346</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H75" t="n">
         <v>115.5091308937368</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I75" t="n">
         <v>0.1243328924225342</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J75" t="n">
         <v>0.072565227904379</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K75" t="n">
         <v>0.0619568560314299</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L75" t="n">
         <v>0.05129887287974239</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M75" t="n">
         <v>0.014300857660481</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N75" t="n">
         <v>0.0292141548263376</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O75" t="n">
         <v>2.571208182191376e-05</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P75" t="n">
         <v>7.155709206563519e-06</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q75" t="n">
         <v>0.001832172805949453</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R75" t="n">
         <v>0.004909829449831641</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S75" t="n">
         <v>0.05699476921911178</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T75" t="n">
         <v>0.1209746590280313</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.000659360847481488</v>
+      </c>
+      <c r="C76" t="n">
+        <v>34.43333333333333</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.995823783629511</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.593864946963186e-05</v>
+      </c>
+      <c r="F76" t="n">
+        <v>51.724</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.586206896551724</v>
+      </c>
+      <c r="H76" t="n">
+        <v>105.1785714285714</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0001730293505548505</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0001023306815427339</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9.020637629994369e-05</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.453013902940632e-05</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.0001179583037225804</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.00018634750410528</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
   </sheetData>
